--- a/Cigna/TestData/TestData.xlsx
+++ b/Cigna/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmaalam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmaalam/IdeaProjects/webautomationteam/Cigna/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F159C0-0B3E-4B43-9E02-2B4E85B6D126}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27623B4E-7ACE-4447-9D1C-865FE5602BA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{64F0A0E8-092D-BA4E-85AC-2510208793EB}"/>
   </bookViews>
@@ -30,40 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>salma@gmail.com</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>sinthia@gmail.com</t>
-  </si>
-  <si>
-    <t>silvia@gmail.com</t>
-  </si>
-  <si>
-    <t>expectedErrorMessage</t>
-  </si>
-  <si>
-    <t>There is 1 error</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>hi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>Doctors</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Medical Claim Form</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>SearchItem</t>
+  </si>
+  <si>
+    <t>SearchKeys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +72,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,69 +421,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB930689-E8FB-A04A-8EFA-3F88DBA19A4B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="salma@gmail.com" xr:uid="{A2779DAA-5875-6148-86B6-A3D8A7B6FF68}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{B435BAA7-52CF-6948-95E7-25BC6EFFEAB9}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F9391AA8-D5D1-BE44-9AFD-2A9CEEB240E2}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{EEDB0E45-6F33-CF49-A167-A5E0DAC584C9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cigna/TestData/TestData.xlsx
+++ b/Cigna/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmaalam/IdeaProjects/webautomationteam/Cigna/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27623B4E-7ACE-4447-9D1C-865FE5602BA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8975BB-C15E-7342-B099-B8BF42372269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{64F0A0E8-092D-BA4E-85AC-2510208793EB}"/>
   </bookViews>
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>Doctors</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Medical Claim Form</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -51,6 +39,18 @@
   </si>
   <si>
     <t>SearchKeys</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>CLAIM FORMS</t>
+  </si>
+  <si>
+    <t>NURSE</t>
+  </si>
+  <si>
+    <t>FACILITIES</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,42 +435,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
